--- a/biology/Botanique/Sore_(botanique)/Sore_(botanique).xlsx
+++ b/biology/Botanique/Sore_(botanique)/Sore_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sores (nom masculin) sont les « fructifications » des fougères et champignons. Ce sont des amas de sporanges ou de sporocystes, structures produisant des spores.
-Les sores sont également les structures de reproduction des algues, notamment chez les Phaeophyceae comme le genre Dictyota[1], seulement ce sont ici les gamétophytes qui produisent ces sores (anthéridiale ou oogoniale) qui contiendront les gamètes mâles ou femelles
+Les sores sont également les structures de reproduction des algues, notamment chez les Phaeophyceae comme le genre Dictyota, seulement ce sont ici les gamétophytes qui produisent ces sores (anthéridiale ou oogoniale) qui contiendront les gamètes mâles ou femelles
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sores matures sont de couleur variée selon les espèces, généralement jaunes, orangés ou brun rougeâtre.
 Ces structures sont souvent de forme sphérique mais peuvent présenter des formes allongées (ex. la scolopendre, Asplenium scolopendrium var. scolopendrium) ou réniforme (ex. la fougère mâle, Dryopteris filix-mas). La position et la forme des sores sont des caractères utiles à l'identification des espèces.
@@ -553,7 +567,9 @@
           <t>Disposition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 	Sores de fougères
@@ -593,7 +609,9 @@
           <t>Cas particuliers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fougères ne possèdent pas toutes des sores. Chez certaines fougères, les sporanges ne sont pas organisées en sores. Les sporanges forment plutôt un revêtement continu sur toute la surface inférieure du limbe (Acrostichum).
 	Cas particuliers
